--- a/data/product_reviews.xlsx
+++ b/data/product_reviews.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GithubProjects\product-rag-experiments\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CE66D95-A27D-42F6-A527-57F0AF9AE380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A91D15-12F2-4B84-99BC-994DABFE8195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9FCF351F-E07A-4CD1-B6EE-5F4306A28123}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="66">
   <si>
     <t>product_name</t>
   </si>
@@ -90,6 +90,150 @@
   </si>
   <si>
     <t>Soundcore Anker R50i</t>
+  </si>
+  <si>
+    <t>Logitech G203 Mouse Gaming</t>
+  </si>
+  <si>
+    <t>suaranya enak banget, thocky dan ada clacky sedikit. puas banget intinya dan bagus warnanya</t>
+  </si>
+  <si>
+    <t>Bagus, dan berfungsi dengan baik, sesuai dengan yang dijanjikan. Dan ga nyangka berat ya padahal plastik jadi kayak mewa</t>
+  </si>
+  <si>
+    <t>keren modelnya, responsif, pas bgt di tangan, top seller, build quality sesuai harga, cocok buat daily kantoran, best mechanical keyboard budget</t>
+  </si>
+  <si>
+    <t>Keyboard mechanical harga yang cukup terjangkau dengan performa solid untuk daily use. Reaper Switch-nya nyaman plus cukup thocky, Recommended!</t>
+  </si>
+  <si>
+    <t>Mechanical keyboard paling enak yg pernah saya pakai. feel ngetik-nya ringan. suara-nya juga 👍. koneksi dengan dongle, BT, kabel juga berfungsi dengan baik. Overall memuaskan. Sayang quality control-nya kurang baik. Spacebar-nya berasa ngancing waktu baru di-unbox. Setelah di-cek ternyata lubang ke stab-nya rusak (bisa dilihat di foto terakhir). Saya potong sendiri bagian yg mengganggu dengan pen cutter baru spacebar-nya mulus seperti si video. Mungkin bisa diperhatikan lagi QC-nya. Sayang sekali soalnya keyboardnya sendiri bagus. Terima kasih</t>
+  </si>
+  <si>
+    <t>setelah nunggu PO 14 hari akhirnya dateng jg nih keyboard, sayang kardusnya penyok dikit untung dalemnya aman. Tapi untuk keyboardnya best lah</t>
+  </si>
+  <si>
+    <t>keyboard bagus ini, berkualitas banget. dapat harga murah 650rb dpt versi pro hehe utk packing cukup aman, double bubble wrap tetap ada penyok di pojokan dusbox tapi isinya tetap aman worth it sih ini Bahan: bagus berkualitas bgt Perakitan: gampang Kualitas pengerjaan: okee</t>
+  </si>
+  <si>
+    <t>kualitas dan barangnya bagus, produk sesuai, desainnya juga bagus, overall mantab</t>
+  </si>
+  <si>
+    <t>pengiriman cepatt, keyboard aman dan bagus bangett, box nya agak penyok tp dlmannya amannn, tutup keyboard agak kotor👍</t>
+  </si>
+  <si>
+    <t>Thocky brutallll. Bagus bangettt, build quality solid, suara enak thocky creamy. Switchnya juga wangy cuyy (literally), smells like alpukat. Mantap lah semoga awet.</t>
+  </si>
+  <si>
+    <t>Bagus banget, harga sesuai kualitas... Typing nya enak banget. Tapi kaget waktu buka box nya, tertulis hanya aula F75 biasa, bukan F75 Pro. Tapi produk keyboard nya ternyata asli yang pro, sudah south fasing dan ganteng banget. aku nanya Mimin nya ttg box, tapi agak kecewa karna G dijawab T~T huhu..</t>
+  </si>
+  <si>
+    <t>Produk sudah diterima dengan baik dan sesuai dengan deskripsi. Pengiriman barang cepat. Pertahankan kualitas produk dan pelayanan kepada pelanggan. Terimakasih</t>
+  </si>
+  <si>
+    <t>my firssttt keyboarddd, worth the price sih yahh,cakepnyaa ,suaranya juga creamy kayak di video,cuman agak susah setting di software nya aja sih</t>
+  </si>
+  <si>
+    <t>Productnya bagus udh di cobaa. Cuman minesnya di wrapingnya dikit jadi packagingnya/kardusnya jadi rusak sedikit, pengirimannya jg cepet ternyata, kirain bakal lama karna harus PO. Untuk saat ini sih blm ada kendala yaaa jadinya ku kasih bintang 5 untuk sementara💯✅️😆 Kualitas pengerjaan: Cepat Bahan: Good quality</t>
+  </si>
+  <si>
+    <t>Kualitas bagus banget, samngat worth it buat mechanical keyboard pertama saya. Mantap deh pokoknya</t>
+  </si>
+  <si>
+    <t>Aula F75 Mechanical Keyboard</t>
+  </si>
+  <si>
+    <t>Nyaman dan praktis tinggal plug and play Ukuran mouse pas ditangan. Best value mouse. Pengiriman hanya sehari</t>
+  </si>
+  <si>
+    <t>Mouse DPI sangat baik dan responsif. Onboard Memory Manager menakjubkan, cukup 1 kali setting langsung tersimpan di profile. Besarnya mouse pas di tangan dan nyaman digunakan, terima kasih Logitech.</t>
+  </si>
+  <si>
+    <t>Grip nya enak, desain dan build quality-nya juga udah lumayan bagus 👍</t>
+  </si>
+  <si>
+    <t>Untuk harga 200k mouse ini punya spek yang bagus dan fitur lengkap, hanya saja perlu ditingkatkan pada bagian QC, karena saya menemukan bagian dent dan scratch yang cukup dalam. Untuk boxnya sangat tipis walaupun sudah dilapisi bubble wrap masih tetap penyok, mungkin untuk menekan harga, tetapi saran dari saya gunakan bahan yang lebih tebal. Overall is good</t>
+  </si>
+  <si>
+    <t>berfungsi dengan baik, warna sesuai, tombol tidak ada yang macet, kabel braided bagus, cuma build quality plastik nya kok sepertinya terlalu tipis ya? entah ada pengurangan bahan atau gimana</t>
+  </si>
+  <si>
+    <t>Pelayanan cepat &amp; produk masih tersegel. Masalahnya kotak mouse nya kok udah agak rusak, untung dalamnya masih aman.</t>
+  </si>
+  <si>
+    <t>double click dan kotak yang penyok</t>
+  </si>
+  <si>
+    <t>Biasa beli yg g102 lightsync (tahan 1 tahun engga double click), trus ini akhirnya beli yg ini karena versi exclusive online buat g102. Buat yg mouse ini kecewa berat sih, 2-3 bulan pemakaian maen valo sama ngoding udh double click kanan kiri. Huftt. Saran mungkin bisa ganti tipe switch ke yang lebih baik lagi jgn omron trus kwkw. Skrng jadinya ganti switch bawaan dengan kaihl 8.0. Kalo ditanya knapa gk claim garansi, jawabannya agak males anter dan males nunggu selesai kwkwkw dan better fixing sendiri ganti switch ke yg lebih bagus.</t>
+  </si>
+  <si>
+    <t>sudah dua kali beli masalah nya tetap sama terjadi double click setelah itu tidak bisa di pencet (sering terjadi di right click )dalam rentang waktu 3-4 bulan saja.</t>
+  </si>
+  <si>
+    <t>Kualitas produk mouse kaya hrga 50rban.. jauh banget sama a4tec* .. itu pada ngasih bintang 4 keatas belum pernah nyoba xl747 ya.. nambah 1 lagi. macro nya aktif kalo software driver logitec jalan.. ah kasih bintang 1 aja</t>
+  </si>
+  <si>
+    <t>sensor tracking hilang/berhenti saat cepat digerakkan</t>
+  </si>
+  <si>
+    <t>belum sebulan sudah double click , padahal banyak pemakaian yg menggunakan auto clicker demi menghemat umur</t>
+  </si>
+  <si>
+    <t>Barang double click</t>
+  </si>
+  <si>
+    <t>scrollnya tengahnya keras. kliknya scroll keras juga dan bunyinya kayak mouse 50rb an. mending kemarin beli yang logitech g102 nambah 30rb tapi nyaman.</t>
+  </si>
+  <si>
+    <t>Kualitas cukup Bagus, dan berfungsi dengan baik, ukurannya sesuai ditangan . semoga switchnya tahan lama.</t>
+  </si>
+  <si>
+    <t>Terrel Sportswear Basic Tee White Tshirt Baju Kaos Olah Raga Dry Fit Lari Running Gym Pria</t>
+  </si>
+  <si>
+    <t>Kualitas barang baik. Namun barang tidak terlalu adem. Mungkin berbeda setelah dicoba di beberapa kali pemakaian</t>
+  </si>
+  <si>
+    <t>Bahan dan jahitan ok bagus Cuma ukuran L itu kaya dobel xxl</t>
+  </si>
+  <si>
+    <t>Bagus bgt suka sama bajunya lebih cocok buat baju jln dari pada olahraga 🥰 terlalu bagus bajunya 👍👍👍👍 saya tinggi 166cm bb 74 ukuran M pas slebew</t>
+  </si>
+  <si>
+    <t>Bahany tebal dan di dingin, celananya juga pas tebal dan ringan, pkokny ga nyesal deh,ini mo pesan lagi baju ny yg size s pas nyaman banget di badan, thx ya 🙏🙏</t>
+  </si>
+  <si>
+    <t>Ternyata gak begitu tebal. Packing tanpa hangtag, tanpa pelastik pelindung. Padahal brand cukup ternama.</t>
+  </si>
+  <si>
+    <t>Quality control nya buruk, ada jahitan di di leher yg buat kecewa. Terus di packing cuma 1 plastik lagi. Itukan cuma lapisan luar doang</t>
+  </si>
+  <si>
+    <t>Ukuran kegedean udah kirim untuk refund pakai alfatrex taunya malah statusnya berubah jadi selesai</t>
+  </si>
+  <si>
+    <t>Yg ini salah kirim penjual nya sy pesan baju dikirim singlet . Mau diajukan pengembalian nya males ribet .</t>
+  </si>
+  <si>
+    <t>Baru kali ini nemu brand yg klo beda warna ukuran ny beda juga👍</t>
+  </si>
+  <si>
+    <t>DISKON sih belinya cuman ya jangan dikirim yang rusak jugalah. Kecewa. Makasih</t>
+  </si>
+  <si>
+    <t>Belum dicoba, Mudah-mudahan enak dan nyaman dipakai dan menyerap keringat</t>
+  </si>
+  <si>
+    <t>produk nya bagus, pertama kali beli sportswear, tapi ini nyaman rasanya</t>
+  </si>
+  <si>
+    <t>Kualitas bahan sangat bagus dan nyaman untuk olahraga lari. Cepat kering menyerap keringat. Pengiriman cepat. Bakal beli lagi produk terrel.</t>
+  </si>
+  <si>
+    <t>Masalahnya g sesuai size chart. Ukuran XL dibilang lebar 59 pas dipake malah +-56, y kekecilan lah. Males juga balikan uang ga seberapa juga, buang tenaga.</t>
+  </si>
+  <si>
+    <t>Bahan sesuai dengan harga sih. Masi oke lah</t>
   </si>
 </sst>
 </file>
@@ -461,13 +605,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81BD7E69-2CB9-4DD5-9B3E-CB84D6A11B41}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -645,6 +793,501 @@
         <v>2</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
